--- a/doors_detection_long_term/scripts/results/faster_rcnn_ap_real_data.xlsx
+++ b/doors_detection_long_term/scripts/results/faster_rcnn_ap_real_data.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.31885958153099686</t>
+          <t>0.31760487629592227</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.24968903960056413</t>
+          <t>0.2591362628268594</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.16193122494766715</t>
+          <t>0.17269525998347451</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.22398740912254422</t>
+          <t>0.2235957130786743</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.1895794434466537</t>
+          <t>0.20269162762942794</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.019050332383665713</t>
+          <t>0.021646090534979425</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.23734789362916475</t>
+          <t>0.2750106505630266</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.3458977014342304</t>
+          <t>0.35875890975978836</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.07031386919149847</t>
+          <t>0.06807241943677633</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.15377770944088845</t>
+          <t>0.16679809366413126</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.11758213170804223</t>
+          <t>0.11745412351551791</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.2745244446998833</t>
+          <t>0.30423905321167927</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.3409833149679173</t>
+          <t>0.35030606199815195</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.07286952924526921</t>
+          <t>0.07108440368885341</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.1452698042475239</t>
+          <t>0.15917830901478058</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.44489751572869585</t>
+          <t>0.44271231339935946</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.31570185941150897</t>
+          <t>0.3472035054825117</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.1294684183894064</t>
+          <t>0.12931183401652682</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.31643059188789396</t>
+          <t>0.39299995019258127</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.14253362635778732</t>
+          <t>0.14497870680443714</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.15607219923048327</t>
+          <t>0.1697027548396303</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.4510324717387083</t>
+          <t>0.4492750763477142</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.21050132640346025</t>
+          <t>0.25057483743924425</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.11663358515520868</t>
+          <t>0.12104104621793303</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.33926323149060256</t>
+          <t>0.3942590195261603</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.1682614663611013</t>
+          <t>0.1912524128520543</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2406,12 +2406,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.09540072936906928</t>
+          <t>0.11693276195380334</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.48874651694503896</t>
+          <t>0.4874034006825678</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.4511302360346527</t>
+          <t>0.49130684403110375</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.6770317329139076</t>
+          <t>0.6837790958300909</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.6474603900861255</t>
+          <t>0.684858243491061</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.5799649995124745</t>
+          <t>0.5860744507049214</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.4726658483256829</t>
+          <t>0.4902611936996778</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.7132665396246403</t>
+          <t>0.7263534637684497</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.6785711681813064</t>
+          <t>0.7662836386495878</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.8121270489768345</t>
+          <t>0.8114313242841752</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.5784092362713885</t>
+          <t>0.6191941673411485</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.83027417551691</t>
+          <t>0.8291473017189136</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.6907865023718689</t>
+          <t>0.7800336416596304</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.7862453658022713</t>
+          <t>0.7847875161677775</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.588621395992301</t>
+          <t>0.648885023786985</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.8502002662331766</t>
+          <t>0.8494059488379281</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.6668124979487295</t>
+          <t>0.7819321778209182</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.8545993821327459</t>
+          <t>0.8535656959165414</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.7660073190686382</t>
+          <t>0.8746988666353414</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.7653408608136897</t>
+          <t>0.8781687945332453</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.8917674115178553</t>
+          <t>0.8905346610106506</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.7103848176528079</t>
+          <t>0.8098376357002945</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.7636593903701016</t>
+          <t>0.8673156340496111</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.7840161308984375</t>
+          <t>0.8982324761704364</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.7846906700129314</t>
+          <t>0.9158990550821321</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.8991021294536894</t>
+          <t>0.8989827183211601</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.8151050837072419</t>
+          <t>0.9257784963345043</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.7923533157204387</t>
+          <t>0.9319652678988799</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.5829270149927884</t>
+          <t>0.5865462994903099</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.4378343536126511</t>
+          <t>0.4775203196992035</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.6743931193766196</t>
+          <t>0.6739745676091321</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.6586762741409495</t>
+          <t>0.7646322029736279</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.5495602722190936</t>
+          <t>0.5450257263610642</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.4561148879569934</t>
+          <t>0.5011729659340868</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.6464027982375828</t>
+          <t>0.6537161789651528</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4606,12 +4606,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.7163105644840814</t>
+          <t>0.8151353354001464</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.7657344110592661</t>
+          <t>0.7644879700206008</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.4437378555025611</t>
+          <t>0.5031940830042644</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.8684454415202354</t>
+          <t>0.8665865864608329</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.6921571287768471</t>
+          <t>0.7650690423829914</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.7890580163271641</t>
+          <t>0.7859392742766969</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.5164264649339275</t>
+          <t>0.532041850873065</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.8457617737461657</t>
+          <t>0.8446389070341552</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.7011563186145979</t>
+          <t>0.7715283164410472</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.8912808762832025</t>
+          <t>0.8904338801892021</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.7717280573313519</t>
+          <t>0.8636236422842758</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.9066310262910038</t>
+          <t>0.9063146164296441</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.7544570460391962</t>
+          <t>0.8525284534030325</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.8584249442614181</t>
+          <t>0.8579057644204658</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.7673500706092804</t>
+          <t>0.8717914685257612</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.8903901612604724</t>
+          <t>0.8903253226909865</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.796813439521037</t>
+          <t>0.8954246162492167</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.8969765970730632</t>
+          <t>0.895792540263702</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.8198119706929011</t>
+          <t>0.9138602614224739</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.7847024621247696</t>
+          <t>0.9000386359168018</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.9103783518270023</t>
+          <t>0.90957170373094</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.768265552245778</t>
+          <t>0.8914643078542853</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.9187912823491194</t>
+          <t>0.926086073264951</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5926,12 +5926,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.7830725264935802</t>
+          <t>0.9157006493835579</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.4911667664409512</t>
+          <t>0.5001177613637817</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.5397293455437024</t>
+          <t>0.5670555827514395</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.679988472672618</t>
+          <t>0.6946530605776867</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.6538436280037898</t>
+          <t>0.7327386989233486</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.6224264513694595</t>
+          <t>0.6308254025280288</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.3496065995857824</t>
+          <t>0.4238584278057964</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.6701980580087635</t>
+          <t>0.6755292979087297</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.6513389360124555</t>
+          <t>0.7416983384696552</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.750770306431622</t>
+          <t>0.7429070856994787</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.578725191356771</t>
+          <t>0.6476501615102961</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.8183534611253983</t>
+          <t>0.817261188679777</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.6567296619928195</t>
+          <t>0.7165207816681486</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.7577998436006887</t>
+          <t>0.7552216681355334</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.44054054054054054</t>
+          <t>0.48314575974150464</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.8688989193071661</t>
+          <t>0.8672776328777339</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.6772198963979795</t>
+          <t>0.7623888856150604</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.8977620217651365</t>
+          <t>0.8971711628032498</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.7224521291458413</t>
+          <t>0.8094813435932253</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.9012310613874011</t>
+          <t>0.9091552512449342</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.7523017169835328</t>
+          <t>0.8853872108518618</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.8753509447602121</t>
+          <t>0.8751815506356909</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.7712023292194079</t>
+          <t>0.8776359966872892</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.7970939641747089</t>
+          <t>0.910008327551557</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.8903872599032292</t>
+          <t>0.8901176569708923</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.7880244358018262</t>
+          <t>0.9210892849451924</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.7789378253337715</t>
+          <t>0.8988084411305429</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.7967047720379956</t>
+          <t>0.8954221263738185</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.9187984780284127</t>
+          <t>0.9188037693855132</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.7890804416462929</t>
+          <t>0.9269803254694476</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7741,12 +7741,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.6795218433298377</t>
+          <t>0.6810379897810649</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.5716683006358811</t>
+          <t>0.6956252342502665</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.7135482940738685</t>
+          <t>0.7589583920815818</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.5960308464656221</t>
+          <t>0.7069459074540952</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.6898826010257048</t>
+          <t>0.7108414573122626</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.5589932335417636</t>
+          <t>0.6681289924085895</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.717042536109141</t>
+          <t>0.7675523205201424</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.5992581439344148</t>
+          <t>0.7301717667686815</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8181,12 +8181,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.6196438931252701</t>
+          <t>0.6467221467055029</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.6244400837104787</t>
+          <t>0.751286610888013</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.7103855730704406</t>
+          <t>0.7821185537067261</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.6348189752466059</t>
+          <t>0.7881307402595319</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.6276296178462183</t>
+          <t>0.6511882774184949</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8456,12 +8456,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.6473700843273612</t>
+          <t>0.7865428741880682</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.7167052290923286</t>
+          <t>0.7698964147642178</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.6323309928004871</t>
+          <t>0.7766881322006358</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.7824530080015268</t>
+          <t>0.820832973122279</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.6329555479639215</t>
+          <t>0.7915855731323692</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.8546530417407175</t>
+          <t>0.8974812816480602</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8786,12 +8786,12 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.6292741091879647</t>
+          <t>0.8162940523082092</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.7737191571776911</t>
+          <t>0.8311309077301173</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.6542626431590447</t>
+          <t>0.8094601610697731</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.8779053536156058</t>
+          <t>0.910534458116056</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.6344462975918457</t>
+          <t>0.8052954918310018</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.8655891121483391</t>
+          <t>0.89061259002649</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.625154453103123</t>
+          <t>0.8166023059517497</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9171,12 +9171,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.8650519378900858</t>
+          <t>0.9260657005850804</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.6426028445659003</t>
+          <t>0.8359033619276218</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9281,12 +9281,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.8124928680886443</t>
+          <t>0.8393201866441975</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.6841551920962291</t>
+          <t>0.8633780741440117</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.8919302515394308</t>
+          <t>0.9249829579540186</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9446,12 +9446,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.6256773270502426</t>
+          <t>0.8064483996391685</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9501,12 +9501,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.7192229408880307</t>
+          <t>0.720917178174954</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9556,12 +9556,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.45876909029572893</t>
+          <t>0.5367470112277006</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9611,12 +9611,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.7397842835986734</t>
+          <t>0.8164429638563401</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.5802711793329791</t>
+          <t>0.6881099378538398</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.7077183636622834</t>
+          <t>0.7182937188064323</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.4727938142764675</t>
+          <t>0.5288586737319168</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9831,12 +9831,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.6789270747829272</t>
+          <t>0.7216339205209078</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.5890717796524224</t>
+          <t>0.7173622059534198</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.5602034608294452</t>
+          <t>0.6304952469030213</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.6164586907283647</t>
+          <t>0.7783740424905771</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.7651418373257991</t>
+          <t>0.8249308805326893</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.6479545738511272</t>
+          <t>0.8050082887008588</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.6432672323426586</t>
+          <t>0.6642203645484639</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.5831253552448148</t>
+          <t>0.7066183670277809</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10271,12 +10271,12 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.7010522994067494</t>
+          <t>0.7443005240954147</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10326,12 +10326,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.6566235184412587</t>
+          <t>0.8310770575083043</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>0.7615238962661316</t>
+          <t>0.8081455468700838</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0.6551025838556387</t>
+          <t>0.802749214310428</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -10491,12 +10491,12 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>0.8670474032285691</t>
+          <t>0.8979459340866562</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -10546,12 +10546,12 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0.6445151625304296</t>
+          <t>0.8092875037406083</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -10601,12 +10601,12 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0.8261191862883789</t>
+          <t>0.874582946147019</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -10656,12 +10656,12 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0.6406125866805861</t>
+          <t>0.7822222112325613</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -10756,7 +10756,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>0.8907069529691434</t>
+          <t>0.9171584328678654</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>0.6425527540888867</t>
+          <t>0.7833908747314114</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -10821,12 +10821,12 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>0.8485531345482925</t>
+          <t>0.8920250882897255</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>0.6321549038031299</t>
+          <t>0.8165936223786993</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -10931,12 +10931,12 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>0.8520192002398109</t>
+          <t>0.9190841295246336</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10986,12 +10986,12 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>0.6392766285633229</t>
+          <t>0.8258640752839276</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -11041,12 +11041,12 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>0.8634748501349908</t>
+          <t>0.9109913678893464</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -11096,12 +11096,12 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>0.6496268242791466</t>
+          <t>0.8189865662640501</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -11151,12 +11151,12 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>0.8824041309206074</t>
+          <t>0.9287660703996146</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -11206,12 +11206,12 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>0.6428041838047903</t>
+          <t>0.8077866626152819</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -11261,12 +11261,12 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0.693103990160468</t>
+          <t>0.7135930865322367</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -11316,12 +11316,12 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>0.512723218643705</t>
+          <t>0.6304661642506876</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -11371,12 +11371,12 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>0.7365324306489599</t>
+          <t>0.75915255743261</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11426,12 +11426,12 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>0.5800968414688028</t>
+          <t>0.7076786324309782</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -11481,12 +11481,12 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>0.6909363612771839</t>
+          <t>0.6953708684917629</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -11536,12 +11536,12 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>0.4910474808162544</t>
+          <t>0.579032122834482</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -11591,12 +11591,12 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>0.7015284594555916</t>
+          <t>0.7621033921259424</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -11646,12 +11646,12 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>0.6038312270503986</t>
+          <t>0.75965953488105</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -11701,12 +11701,12 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>0.6809147313234994</t>
+          <t>0.7400049233967116</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -11756,12 +11756,12 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -11801,7 +11801,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>0.6093096781503475</t>
+          <t>0.7969640150268491</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -11811,12 +11811,12 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>0.7400399829134736</t>
+          <t>0.8096258877318481</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -11866,12 +11866,12 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>0.6395415068934728</t>
+          <t>0.8111686306532011</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -11921,12 +11921,12 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>0.5223846546381369</t>
+          <t>0.6047198303353322</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -11976,12 +11976,12 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>0.5650265646351047</t>
+          <t>0.707098846354175</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -12031,12 +12031,12 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>0.7172274295650659</t>
+          <t>0.8057403581290382</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -12086,12 +12086,12 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>0.6258072486956815</t>
+          <t>0.812931442403238</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -12141,12 +12141,12 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>0.7813755460979366</t>
+          <t>0.8385759027911879</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -12196,12 +12196,12 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>0.6734361632807986</t>
+          <t>0.8166565258159205</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0.847308364941281</t>
+          <t>0.8986392244217487</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -12306,12 +12306,12 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>0.6409977545428898</t>
+          <t>0.8366559527281165</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -12361,12 +12361,12 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>0.8223606683788358</t>
+          <t>0.8559908675899075</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -12416,12 +12416,12 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>0.6182845968133733</t>
+          <t>0.7903127281855994</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -12471,12 +12471,12 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>0.8550394523757835</t>
+          <t>0.8985251117028015</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -12526,12 +12526,12 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>0.6275372926839775</t>
+          <t>0.813588290418054</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -12581,12 +12581,12 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>0.8766157840927795</t>
+          <t>0.8990542074394365</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -12636,12 +12636,12 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>0.6483502658673412</t>
+          <t>0.8303076267611441</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -12691,12 +12691,12 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -12736,7 +12736,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>0.9061705774675931</t>
+          <t>0.9326813424022017</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -12746,12 +12746,12 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>0.6245815565462521</t>
+          <t>0.7812707808204867</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -12801,12 +12801,12 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>0.8074731827199362</t>
+          <t>0.8454650601126942</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -12856,12 +12856,12 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>0.6681757912356585</t>
+          <t>0.8267562825517493</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -12911,12 +12911,12 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>0.8741386851002011</t>
+          <t>0.9252551130440115</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -12966,12 +12966,12 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>0.6568400567435517</t>
+          <t>0.8392695263105014</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -13021,12 +13021,12 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -13066,7 +13066,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>0.5174227687414389</t>
+          <t>0.5184102764869429</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -13076,12 +13076,12 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -13121,7 +13121,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>0.542089563641507</t>
+          <t>0.5413960783926313</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -13131,12 +13131,12 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>0.6913704790861178</t>
+          <t>0.7019410217546544</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -13186,12 +13186,12 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>0.5968188553427244</t>
+          <t>0.6162656511165979</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -13241,12 +13241,12 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>0.5088115777876125</t>
+          <t>0.5037312037928194</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>0.45279927073108117</t>
+          <t>0.4600092162472732</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -13351,12 +13351,12 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>0.6564569620437241</t>
+          <t>0.6599790856321109</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -13406,12 +13406,12 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>149</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>0.6109484138581225</t>
+          <t>0.6407141809214719</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -13461,12 +13461,12 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13506,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>0.6878277136167921</t>
+          <t>0.6986730429979584</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -13516,12 +13516,12 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>152</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>0.6636317879098428</t>
+          <t>0.693680733646359</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -13571,12 +13571,12 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>0.7497714455216781</t>
+          <t>0.7619942347093753</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -13626,12 +13626,12 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>0.7812480924517974</t>
+          <t>0.8057020776655668</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -13681,12 +13681,12 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>0.6534299371015355</t>
+          <t>0.6803213301929646</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -13736,12 +13736,12 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>139</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>0.6204213055402529</t>
+          <t>0.6191353531008014</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -13791,12 +13791,12 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>0.7306446291658809</t>
+          <t>0.7483882704483323</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -13846,12 +13846,12 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>0.7481000788508726</t>
+          <t>0.7731245866116099</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -13901,12 +13901,12 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>0.8510566224013382</t>
+          <t>0.8752184491046252</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -13956,12 +13956,12 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>0.7024370304477767</t>
+          <t>0.7412245376038076</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -14011,12 +14011,12 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -14056,7 +14056,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>0.8939741054227849</t>
+          <t>0.9180906669235928</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -14066,12 +14066,12 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>183</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>0.7688484543965067</t>
+          <t>0.8171658194812425</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -14121,12 +14121,12 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14166,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>0.8276389353151694</t>
+          <t>0.8713650867618641</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -14176,12 +14176,12 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>0.7246019562667521</t>
+          <t>0.7524164171897216</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -14231,12 +14231,12 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>0.8723087044021237</t>
+          <t>0.9088912049718512</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -14286,12 +14286,12 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>181</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>0.7793715456273397</t>
+          <t>0.8196232703190933</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -14341,12 +14341,12 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>0.8840219585164302</t>
+          <t>0.9278823015133045</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -14396,7 +14396,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>0.8714152891539025</t>
+          <t>0.9022956126681335</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -14451,12 +14451,12 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>0.8952808278844254</t>
+          <t>0.9204474960097958</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -14506,12 +14506,12 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>0.8013777881265902</t>
+          <t>0.8814655575128408</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -14561,12 +14561,12 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>120</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>0.8493632038241086</t>
+          <t>0.8840395466213584</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -14616,12 +14616,12 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>175</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>0.8315422729850778</t>
+          <t>0.8722727804044514</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -14671,12 +14671,12 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>120</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>0.896093859278037</t>
+          <t>0.9312508503527267</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -14726,12 +14726,12 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -14771,7 +14771,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>0.8369628478708607</t>
+          <t>0.8951905258660339</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -14781,12 +14781,12 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14826,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>0.5452184832723423</t>
+          <t>0.547264123504232</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -14836,12 +14836,12 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>0.43624746110425083</t>
+          <t>0.44828037621217487</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -14891,12 +14891,12 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>0.6928595995554709</t>
+          <t>0.6950232809280863</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -14946,12 +14946,12 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -14991,7 +14991,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>0.6371549703145915</t>
+          <t>0.651187329557806</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -15001,12 +15001,12 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -15046,7 +15046,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>0.4306389647124376</t>
+          <t>0.43060910049707707</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -15056,12 +15056,12 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -15101,7 +15101,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>0.4524392897410167</t>
+          <t>0.449456492548128</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>0.6419538500054939</t>
+          <t>0.6456850880040306</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -15166,12 +15166,12 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15211,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>0.6497519961939722</t>
+          <t>0.6689249869363064</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -15221,12 +15221,12 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>0.6468685559612792</t>
+          <t>0.6481581810295589</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -15276,12 +15276,12 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -15321,7 +15321,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>0.6492960983181917</t>
+          <t>0.6891077690885011</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -15331,12 +15331,12 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -15376,7 +15376,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>0.700970960958087</t>
+          <t>0.7189866248641895</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -15386,12 +15386,12 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -15431,7 +15431,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>0.7345140298693624</t>
+          <t>0.7443975522299174</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -15441,12 +15441,12 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>0.7157659668426459</t>
+          <t>0.7209898039282181</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -15496,12 +15496,12 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>0.657152368700034</t>
+          <t>0.6931361224569411</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -15551,12 +15551,12 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>0.6847106440996125</t>
+          <t>0.7042139809879119</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -15606,12 +15606,12 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>0.7645460666078545</t>
+          <t>0.8125265952336022</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -15661,12 +15661,12 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -15706,7 +15706,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>0.8832456308708978</t>
+          <t>0.9015386228881503</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>0.680750440235592</t>
+          <t>0.7350995434045159</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -15771,12 +15771,12 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>0.8847561900121159</t>
+          <t>0.9196698114851075</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -15826,12 +15826,12 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -15871,7 +15871,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>0.809609927909489</t>
+          <t>0.8332057345290755</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -15881,12 +15881,12 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -15926,7 +15926,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>0.8152790089513051</t>
+          <t>0.8606563224678209</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -15936,12 +15936,12 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>0.7963973227053102</t>
+          <t>0.8222215011578978</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -15991,12 +15991,12 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -16036,7 +16036,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>0.9035738625322802</t>
+          <t>0.9268373834618633</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -16046,12 +16046,12 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>0.7344807330191323</t>
+          <t>0.7827101839481854</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -16101,12 +16101,12 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16146,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>0.8847821803704421</t>
+          <t>0.9037649143706423</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>0.7645310982723708</t>
+          <t>0.8421839316525469</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -16211,12 +16211,12 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -16256,7 +16256,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>0.876607897795028</t>
+          <t>0.9122175224477651</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -16266,12 +16266,12 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>0.8089071113799032</t>
+          <t>0.8662344101392442</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -16321,12 +16321,12 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>0.8630715328620048</t>
+          <t>0.9109121142182078</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -16376,12 +16376,12 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>0.8270119838864494</t>
+          <t>0.8598332847887212</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -16431,12 +16431,12 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>0.9063736121281938</t>
+          <t>0.9204115955610657</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -16486,12 +16486,12 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>183</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>0.8239883086894568</t>
+          <t>0.8970480380068874</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -16541,12 +16541,12 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>0.553330345260896</t>
+          <t>0.5536199111100387</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -16596,12 +16596,12 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -16641,7 +16641,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>0.3993292803791763</t>
+          <t>0.41743146131657954</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -16651,12 +16651,12 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>0.668814735523005</t>
+          <t>0.6685214038432276</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -16706,12 +16706,12 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>0.6002373122314982</t>
+          <t>0.632484786210326</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -16761,12 +16761,12 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16806,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>0.5155983208511135</t>
+          <t>0.516747768097524</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -16816,12 +16816,12 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>0.4298178793450665</t>
+          <t>0.44116435371117607</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -16871,12 +16871,12 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -16916,7 +16916,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>0.6484355015580275</t>
+          <t>0.6578706646098209</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -16926,12 +16926,12 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -16971,7 +16971,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>0.6345409051302028</t>
+          <t>0.667673086482965</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -16981,12 +16981,12 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -17026,7 +17026,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>0.7110333981395265</t>
+          <t>0.7168921617113613</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -17036,12 +17036,12 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>0.5948908031983643</t>
+          <t>0.6007181345062813</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -17091,12 +17091,12 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17136,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>0.7623628558979351</t>
+          <t>0.776439744662045</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -17146,12 +17146,12 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -17191,7 +17191,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>0.7552552882021062</t>
+          <t>0.8255407598522227</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -17201,12 +17201,12 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -17246,7 +17246,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>0.6300007418079845</t>
+          <t>0.6444286412073876</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -17256,12 +17256,12 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>0.6636020700436855</t>
+          <t>0.6610943817772693</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -17311,12 +17311,12 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -17356,7 +17356,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>0.7284463501928191</t>
+          <t>0.7389333764559701</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -17366,12 +17366,12 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>151</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>0.7339272908354846</t>
+          <t>0.777925111751256</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -17421,12 +17421,12 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17466,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>0.8223039465663724</t>
+          <t>0.858303377340095</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -17476,12 +17476,12 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -17521,7 +17521,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>0.7510908288668864</t>
+          <t>0.7724865466320091</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -17531,12 +17531,12 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -17576,7 +17576,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>0.8802962139590099</t>
+          <t>0.9036799992253178</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -17586,12 +17586,12 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>0.7872404034675066</t>
+          <t>0.81410339108001</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -17641,12 +17641,12 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>0.8063535453823093</t>
+          <t>0.8573221998714601</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -17696,12 +17696,12 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -17741,7 +17741,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>0.783261205332274</t>
+          <t>0.790135956476995</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -17751,12 +17751,12 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17796,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>0.8638159916455959</t>
+          <t>0.9083145126659006</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -17806,12 +17806,12 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>0.8380939222868745</t>
+          <t>0.8580787311798825</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -17861,12 +17861,12 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -17906,7 +17906,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>0.8418646592868267</t>
+          <t>0.8809319270232083</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -17916,12 +17916,12 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>0.8306944252085676</t>
+          <t>0.8617943478813216</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -17971,12 +17971,12 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -18016,7 +18016,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>0.873048388497755</t>
+          <t>0.9179982248859326</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -18026,12 +18026,12 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -18071,7 +18071,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>0.8626025321355678</t>
+          <t>0.8919673490433615</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -18081,12 +18081,12 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18126,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>0.8494301799816951</t>
+          <t>0.8783798273449284</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -18136,12 +18136,12 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>175</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -18181,7 +18181,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>0.8045343469813349</t>
+          <t>0.8626864391042907</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -18191,12 +18191,12 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -18236,7 +18236,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>0.8500294908325283</t>
+          <t>0.8906548045384545</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -18246,7 +18246,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -18291,7 +18291,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>0.8627089450039558</t>
+          <t>0.9048628293248105</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -18301,12 +18301,12 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
     </row>
